--- a/internship_applications.xlsx
+++ b/internship_applications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,308 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Application Deadline</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovative Solutions Co.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Software Engineering Internship</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://innovativesolutionsco.com/careers</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CodeCrafters</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Summer Software Engineer Intern</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://codecrafters.com/careers</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tech Innovations Inc.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Software Engineering Intern</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://techinnovations.com/careers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AI Research Intern</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mountain View, CA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://careers.google.com/jobs/results/128833136777178694-ai-research-intern-summer-2026/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AI Engineering Intern</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Redmond, WA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://careers.microsoft.com/us/en/job/1185740/Internship-Opportunities-in-AI-Engineering-Summer-2026</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AI Product Management Intern</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Menlo Park, CA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/careers/jobs/107822716919907/</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tech Innovators</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Software Engineering Intern</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://techinnovators.com/careers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Code Masters</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Summer Software Engineering Intern</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://codemasters.com/internship</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Innovate Tech</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Software Development Intern</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Austin, TX</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not Applied</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://innovatetech.com/careers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
